--- a/Assets/ERang/Excels/RandomEventsData.xlsx
+++ b/Assets/ERang/Excels/RandomEventsData.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>EliteBattle_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>RandomEventsID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,60 +46,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤 전투 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomBattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 전투 이벤트(지정)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomBattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>룰렛 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random Events_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>짝맞추기 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EliteBattle_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 감소 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random Events_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유물 획득 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 획득 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EliteBattle_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ReductionValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 전투 이벤트</t>
+  </si>
+  <si>
+    <t>RandomBattle</t>
+  </si>
+  <si>
+    <t>랜덤 전투 이벤트(지정)</t>
+  </si>
+  <si>
+    <t>룰렛 이벤트</t>
+  </si>
+  <si>
+    <t>Random Events_01</t>
+  </si>
+  <si>
+    <t>짝맞추기 이벤트</t>
+  </si>
+  <si>
+    <t>EliteBattle_01</t>
+  </si>
+  <si>
+    <t>체력 감소 이벤트</t>
+  </si>
+  <si>
+    <t>유물 획득 이벤트</t>
+  </si>
+  <si>
+    <t>카드 획득 이벤트</t>
   </si>
 </sst>
 </file>
@@ -541,7 +515,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -562,22 +536,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -606,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -623,10 +597,10 @@
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
@@ -641,10 +615,10 @@
         <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>100</v>
@@ -659,10 +633,10 @@
         <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
@@ -677,10 +651,10 @@
         <v>1006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>50</v>
@@ -695,10 +669,10 @@
         <v>1007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
